--- a/The_Taunter/scripts.xlsx
+++ b/The_Taunter/scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1FE087-D70C-4F87-8C5D-596BD995B3E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E1E3D-B195-4FA2-95E5-2C08BBD34394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vocation</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>Dark_Magician_Tower/setup_ek.json</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>150+</t>
+  </si>
+  <si>
+    <t>Port_Hope_Giant_Spiders</t>
+  </si>
+  <si>
+    <t>Port_Hope_Giant_Spiders/setup_mage.json</t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -384,6 +396,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="12.75">
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
